--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_247.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_247.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,130 +488,140 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_79</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.2753623188405797</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>isophonics_231</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>isophonics_291</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07714786674459381</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>[['D/5', 'G', 'C'], ['C', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(17.38, 31.86)]</t>
+          <t>[['A', 'D', 'G'], ['G', 'A', 'D']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(0.56, 6.3)]</t>
+          <t>[('0:00:38.435396', '0:00:43.311587'), ('0:00:17.014988', '0:00:20.892721')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:31.434580', '0:00:34.406734'), ('0:00:33.431496', '0:00:38.307687')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_43</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.2666666666666667</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['G:7', 'C:maj/G', 'G:7', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(2.56, 6.82)]</t>
+          <t>[['F:7', 'A#:maj/F', 'F:7', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(8.2, 23.6)]</t>
+          <t>[('0:01:33.300000', '0:01:43.060000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:01:37.940000', '0:01:48.300000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_88</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_156</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.421195652173913</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['C#:7', 'F#:maj', 'F#:maj/A#', 'C#:7', 'F#:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(5.78, 12.6)]</t>
+          <t>[['B:7/A', 'E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(18.3, 21.32)]</t>
+          <t>[('0:00:21.440000', '0:00:25.400000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:03:53.340000', '0:04:09.140000')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -614,92 +629,103 @@
           <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
         </is>
       </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_171</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_175</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2753623188405797</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min'], ['A#:maj/F', 'F:7', 'A#:maj']]</t>
+          <t>[['F#:min', 'B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(10.76, 23.6), (62.86, 68.74)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6), (28.02, 30.1)]</t>
+          <t>[('0:00:01.360000', '0:00:06.460000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:12.820000', '0:00:24.900000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_15</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_170</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2657342657342657</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(16.52, 25.4)]</t>
+          <t>[['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(41.3, 43.48)]</t>
+          <t>[('0:00:23.260000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:01:12.520000', '0:01:30.980000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -708,497 +734,430 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_154</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_255</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.1483870967741935</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'G:maj/B', 'D:7']]</t>
+          <t>[['A:min', 'D:min', 'A:min']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.24, 17.72)]</t>
+          <t>[['D:min', 'G:min/5', 'D:min']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(20.08, 23.2)]</t>
+          <t>[('0:00:10.880000', '0:00:16.760000')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:00:27.789047', '0:00:31.109501')]</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_22</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_131</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_153</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(8.98, 20.58)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:01:00.320000', '0:01:06.700000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:57.520000', '0:01:03.420000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
-        </is>
+          <t>isophonics_6</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>isophonics_212</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'A#:min/F', 'F:min']]</t>
+          <t>[['D', 'G/5', 'D', 'G/5', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(74.8, 81.06), (25.48, 32.76)]</t>
+          <t>[['D', 'G', 'D', 'G', 'D', 'G', 'D']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(4.86, 7.56), (2.36, 5.68)]</t>
+          <t>[('0:00:20.432000', '0:00:32.032000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:00:46.932280', '0:01:01.200942')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07728085867620751</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_4</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_269</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3666666666666667</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(10.94, 16.32)]</t>
+          <t>[['A:min', 'E', 'A:min', 'E', 'A:min', 'E']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(102.76, 118.78)]</t>
+          <t>[('0:00:08.240000', '0:00:21.440000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:38.841000', '0:00:46.833000')]</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(63.2, 73.12)]</t>
+          <t>[('0:02:18.020000', '0:02:22.340000')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:55.180000', '0:01:02.060000')]</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4761904761904762</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
+          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(8.2, 12.66), (0.78, 5.26)]</t>
+          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[('0:00:02.580000', '0:00:16.360000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:01.420000', '0:01:11')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_102</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3939393939393939</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_136</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_181</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(62.5, 72.76)]</t>
+          <t>[['D#:maj', 'A#:maj', 'A#:min', 'F:min/C', 'C:7', 'F:min', 'G#:maj', 'G#:min', 'A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj', 'D#:maj', 'D#:7', 'G#:maj', 'C:(3,5,b7,b9)/G#', 'F:min/G#', 'D#:maj/A#', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(16.84, 21.54)]</t>
+          <t>[('0:00:49.020000', '0:01:44.600000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:41.140000', '0:01:25.340000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
+          <t>schubert-winterreise_16</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_96</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>1</v>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(100.24, 104.56)]</t>
+          <t>[['F:maj', 'C:maj', 'C:min', 'G:min/D', 'D:7', 'G:min', 'A#:maj', 'A#:min', 'C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj', 'F:maj', 'F:7', 'A#:maj', 'D:(3,5,b7,b9)/A#', 'G:min/A#', 'F:maj/C', 'C:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(120.4, 127.2)]</t>
+          <t>[('0:00:46.340000', '0:01:37.480000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:42.240000', '0:01:30.860000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_184</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1001011122345804</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
-        </is>
+          <t>isophonics_197</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>isophonics_67</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8787878787878788</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:min', 'G:min']]</t>
+          <t>[['E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E', 'A', 'F#:min', 'D', 'E']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(5.02, 8.8)]</t>
+          <t>[['G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G', 'C', 'A:min', 'F', 'G']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(11.62, 15.6)]</t>
+          <t>[('0:00:19.977483', '0:01:57.814762')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:01:31.957392', '0:02:08.958390')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_223</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1282051282051282</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D', 'D:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_44</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_66</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>[['A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min', 'A#:min/F', 'F:7', 'A#:min', 'G#/C', 'G#:7', 'C#', 'A#:min', 'D#:7/A#', 'G#', 'C#/F', 'G#:7/D#', 'C#/F', 'G#:7', 'C#', 'C:dim7/C#', 'C#:7', 'F#', 'D#:min', 'G#:7/D#', 'C#', 'F#/A#', 'C#:7/G#', 'F#/A#', 'C#', 'F#', 'C:hdim7/D#', 'A#:min/C#', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'C:hdim7/D#', 'A#:min/C#', 'C#/F', 'A#:min/F', 'F:7', 'A#:min', 'A:dim7/A#', 'A#:min', 'D#:min', 'A#:min/F', 'D#:min7/F#', 'A#:min/F', 'F:7', 'A#:min', 'A#:min', 'C:hdim7/A#', 'A#:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(12.823786, 18.895804)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(2.96, 13.12)]</t>
+          <t>[('0:00:15.900000', '0:01:46.380000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:3KfbEIOC7YIv90FIfNSZpo</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1652173913043478</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(2.58, 5.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(42.94, 51.08)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>[('0:00:14.760000', '0:01:42.460000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
